--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andytm\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF2D3C0-3758-47FD-8842-A73919FCCF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02F965-195C-44B5-8496-78B8212A89F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0274E439-A408-4AFE-A586-B78A624952BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0274E439-A408-4AFE-A586-B78A624952BD}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -243,9 +234,6 @@
     <t>A10</t>
   </si>
   <si>
-    <t xml:space="preserve">S10, </t>
-  </si>
-  <si>
     <t>A54</t>
   </si>
   <si>
@@ -334,6 +322,9 @@
   </si>
   <si>
     <t>Город (монтажа)</t>
+  </si>
+  <si>
+    <t>S10</t>
   </si>
 </sst>
 </file>
@@ -735,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CAC553-0129-43FD-A801-B955B2CE9E7C}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +768,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
@@ -800,7 +791,7 @@
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
@@ -823,7 +814,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -854,7 +845,7 @@
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
@@ -879,7 +870,7 @@
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -910,10 +901,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -941,7 +932,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -972,7 +963,7 @@
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -1003,7 +994,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -1034,7 +1025,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>52</v>
@@ -1065,7 +1056,7 @@
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>53</v>
@@ -1096,7 +1087,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>54</v>
@@ -1127,7 +1118,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -1148,7 +1139,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -1169,7 +1160,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -1190,7 +1181,7 @@
     </row>
     <row r="17" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
@@ -1221,7 +1212,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
@@ -1252,7 +1243,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
@@ -1273,7 +1264,7 @@
     </row>
     <row r="20" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
@@ -1302,7 +1293,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
@@ -1333,7 +1324,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
@@ -1352,7 +1343,7 @@
     </row>
     <row r="23" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
@@ -1381,7 +1372,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -1412,7 +1403,7 @@
     </row>
     <row r="25" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
@@ -1433,7 +1424,7 @@
     </row>
     <row r="26" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>20</v>
@@ -1464,7 +1455,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
@@ -1482,7 +1473,7 @@
         <v>45</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1493,9 +1484,9 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -1509,7 +1500,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1522,7 +1513,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andytm\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02F965-195C-44B5-8496-78B8212A89F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB3CD16-8233-4374-87CC-179E12631727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0274E439-A408-4AFE-A586-B78A624952BD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>E5</t>
   </si>
@@ -33,12 +33,6 @@
     <t>D3</t>
   </si>
   <si>
-    <t>фреон (Акт по фреон)</t>
-  </si>
-  <si>
-    <t>фреон (систем дренажа)</t>
-  </si>
-  <si>
     <t>Испытания</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>P24</t>
   </si>
   <si>
-    <t>L22</t>
-  </si>
-  <si>
     <t>S21, E38</t>
   </si>
   <si>
@@ -325,6 +316,12 @@
   </si>
   <si>
     <t>S10</t>
+  </si>
+  <si>
+    <t>Акт по фреон</t>
+  </si>
+  <si>
+    <t>систем дренажа</t>
   </si>
 </sst>
 </file>
@@ -726,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CAC553-0129-43FD-A801-B955B2CE9E7C}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,19 +740,19 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -768,17 +765,17 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -791,17 +788,17 @@
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -814,25 +811,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -845,19 +842,19 @@
     </row>
     <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -870,22 +867,22 @@
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -901,22 +898,22 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
@@ -932,25 +929,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -963,25 +960,25 @@
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -994,25 +991,25 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1025,25 +1022,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1056,25 +1053,25 @@
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1087,25 +1084,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1118,10 +1115,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1139,10 +1136,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1160,7 +1157,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -1181,25 +1178,25 @@
     </row>
     <row r="17" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1212,25 +1209,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1243,7 +1240,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
@@ -1264,22 +1261,22 @@
     </row>
     <row r="20" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1293,25 +1290,25 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1324,7 +1321,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
@@ -1343,22 +1340,22 @@
     </row>
     <row r="23" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1372,25 +1369,25 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1403,10 +1400,10 @@
     </row>
     <row r="25" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1424,25 +1421,25 @@
     </row>
     <row r="26" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1455,25 +1452,25 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1486,21 +1483,21 @@
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1513,7 +1510,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
